--- a/Final Data Ohio/Ohio companies with county/Ohio_2009.xlsx
+++ b/Final Data Ohio/Ohio companies with county/Ohio_2009.xlsx
@@ -1,24 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data Ohio/Ohio companies with county/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_0A914756424EBFE9BED2B6F4916F5FE3792ABF73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43CB7BEC-91D0-4987-9304-EE52D213E943}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="24945" yWindow="4440" windowWidth="26370" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Ohio_2009" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Ohio_2009" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - Ohio_2009'!$A$2:$D$63</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>Ohio_2009</t>
   </si>
   <si>
-    <t>company</t>
-  </si>
-  <si>
     <t>rank</t>
   </si>
   <si>
@@ -43,21 +68,12 @@
     <t>1755.7</t>
   </si>
   <si>
-    <t>Bob Evans Farms, Inc.</t>
-  </si>
-  <si>
     <t>1737.0</t>
   </si>
   <si>
-    <t>OM Group, Inc.</t>
-  </si>
-  <si>
     <t>1736.8</t>
   </si>
   <si>
-    <t>The E.W. Scripps Company</t>
-  </si>
-  <si>
     <t>1806.2</t>
   </si>
   <si>
@@ -67,21 +83,12 @@
     <t>1776.8</t>
   </si>
   <si>
-    <t>Retail Ventures, Inc.</t>
-  </si>
-  <si>
     <t>1885.0</t>
   </si>
   <si>
-    <t>Jo-Ann Stores, Inc.</t>
-  </si>
-  <si>
     <t>1901.1</t>
   </si>
   <si>
-    <t>Applied Industrial Technologies, Inc.</t>
-  </si>
-  <si>
     <t>2089.5</t>
   </si>
   <si>
@@ -109,15 +116,9 @@
     <t>2387.1</t>
   </si>
   <si>
-    <t>The J.M. Smucker Company</t>
-  </si>
-  <si>
     <t>2524.8</t>
   </si>
   <si>
-    <t>Lincoln Electric Holdings, Inc.</t>
-  </si>
-  <si>
     <t>2479.1</t>
   </si>
   <si>
@@ -127,15 +128,9 @@
     <t>2738.7</t>
   </si>
   <si>
-    <t>Thor Industries, Inc.</t>
-  </si>
-  <si>
     <t>2640.7</t>
   </si>
   <si>
-    <t>Cooper Tire &amp; Rubber Company</t>
-  </si>
-  <si>
     <t>2881.8</t>
   </si>
   <si>
@@ -145,15 +140,9 @@
     <t>2785.8</t>
   </si>
   <si>
-    <t>Worthington Industries, Inc.</t>
-  </si>
-  <si>
     <t>3067.2</t>
   </si>
   <si>
-    <t>Scotts Miracle-Gro Co.</t>
-  </si>
-  <si>
     <t>2981.8</t>
   </si>
   <si>
@@ -163,9 +152,6 @@
     <t>3170.1</t>
   </si>
   <si>
-    <t>Abercrombie &amp; Fitch Co.</t>
-  </si>
-  <si>
     <t>3540.3</t>
   </si>
   <si>
@@ -175,21 +161,12 @@
     <t>3505.5</t>
   </si>
   <si>
-    <t>The Andersons, Inc.</t>
-  </si>
-  <si>
     <t>3489.5</t>
   </si>
   <si>
-    <t>NACCO Industries, Inc.</t>
-  </si>
-  <si>
     <t>3680.3</t>
   </si>
   <si>
-    <t>RPM International, Inc.</t>
-  </si>
-  <si>
     <t>3643.8</t>
   </si>
   <si>
@@ -205,9 +182,6 @@
     <t>3824.4</t>
   </si>
   <si>
-    <t>Greif, Inc.</t>
-  </si>
-  <si>
     <t>3776.8</t>
   </si>
   <si>
@@ -217,15 +191,9 @@
     <t>3937.9</t>
   </si>
   <si>
-    <t>American Financial Group, Inc.</t>
-  </si>
-  <si>
     <t>4292.7</t>
   </si>
   <si>
-    <t>Chiquita Brands International, Inc.</t>
-  </si>
-  <si>
     <t>4524.1</t>
   </si>
   <si>
@@ -235,21 +203,12 @@
     <t>4356.0</t>
   </si>
   <si>
-    <t>Big Lots, Inc.</t>
-  </si>
-  <si>
     <t>4645.3</t>
   </si>
   <si>
-    <t>The Lubrizol Corporation</t>
-  </si>
-  <si>
     <t>5027.8</t>
   </si>
   <si>
-    <t>Western &amp; Southern Mutual Holding Company</t>
-  </si>
-  <si>
     <t>5391.7</t>
   </si>
   <si>
@@ -265,21 +224,12 @@
     <t>5847.0</t>
   </si>
   <si>
-    <t>The Timken Company</t>
-  </si>
-  <si>
     <t>5663.7</t>
   </si>
   <si>
-    <t>Hexion Specialty Chemicals, Inc.</t>
-  </si>
-  <si>
     <t>6093.0</t>
   </si>
   <si>
-    <t>Aleris International, Inc.</t>
-  </si>
-  <si>
     <t>5968.2</t>
   </si>
   <si>
@@ -289,9 +239,6 @@
     <t>6499.0</t>
   </si>
   <si>
-    <t>Owens-Illinois, Inc.</t>
-  </si>
-  <si>
     <t>7884.7</t>
   </si>
   <si>
@@ -319,21 +266,12 @@
     <t>8101.0</t>
   </si>
   <si>
-    <t>The Sherwin-Williams Company</t>
-  </si>
-  <si>
     <t>7979.7</t>
   </si>
   <si>
-    <t>Limited Brands, Inc.</t>
-  </si>
-  <si>
     <t>9043.0</t>
   </si>
   <si>
-    <t>The Progressive Corporation</t>
-  </si>
-  <si>
     <t>12840.1</t>
   </si>
   <si>
@@ -349,9 +287,6 @@
     <t>13627.0</t>
   </si>
   <si>
-    <t>American Electric Power Company, Inc.</t>
-  </si>
-  <si>
     <t>14442.0</t>
   </si>
   <si>
@@ -361,49 +296,136 @@
     <t>15376.0</t>
   </si>
   <si>
-    <t>Nationwide Mutual Insurance Co.</t>
-  </si>
-  <si>
     <t>19848.0</t>
   </si>
   <si>
-    <t>The Goodyear Tire &amp; Rubber Company</t>
-  </si>
-  <si>
     <t>19488.0</t>
   </si>
   <si>
-    <t>Macy's, Inc.</t>
-  </si>
-  <si>
     <t>24892.0</t>
   </si>
   <si>
-    <t>Cardinal Health, Inc.</t>
-  </si>
-  <si>
     <t>91091.4</t>
   </si>
   <si>
-    <t>The Procter &amp; Gamble Company</t>
-  </si>
-  <si>
     <t>83503.0</t>
   </si>
   <si>
-    <t>The Kroger Company</t>
-  </si>
-  <si>
     <t>76000.0</t>
+  </si>
+  <si>
+    <t>Cardinal Health</t>
+  </si>
+  <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>Limited Brands</t>
+  </si>
+  <si>
+    <t>Owens-Illinois</t>
+  </si>
+  <si>
+    <t>Hexion Specialty Chemicals</t>
+  </si>
+  <si>
+    <t>Aleris International</t>
+  </si>
+  <si>
+    <t>Big Lots</t>
+  </si>
+  <si>
+    <t>Chiquita Brands International</t>
+  </si>
+  <si>
+    <t>American Financial Group</t>
+  </si>
+  <si>
+    <t>Greif</t>
+  </si>
+  <si>
+    <t>NACCO Industries</t>
+  </si>
+  <si>
+    <t>RPM International</t>
+  </si>
+  <si>
+    <t>Worthington Industries</t>
+  </si>
+  <si>
+    <t>Thor Industries</t>
+  </si>
+  <si>
+    <t>Lincoln Electric Holdings</t>
+  </si>
+  <si>
+    <t>Applied Industrial Technologies</t>
+  </si>
+  <si>
+    <t>Jo-Ann Stores</t>
+  </si>
+  <si>
+    <t>Retail Ventures</t>
+  </si>
+  <si>
+    <t>Bob Evans Farms</t>
+  </si>
+  <si>
+    <t>OM Group</t>
+  </si>
+  <si>
+    <t>Progressive Corporation</t>
+  </si>
+  <si>
+    <t>Lubrizol Corporation</t>
+  </si>
+  <si>
+    <t>Andersons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procter &amp; Gamble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kroger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodyear Tire &amp; Rubber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Electric Power </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherwin-Williams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western &amp; Southern Mutual Holding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooper Tire &amp; Rubber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.M. Smucker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.W. Scripps </t>
+  </si>
+  <si>
+    <t>Nationwide Mutual Insurance</t>
+  </si>
+  <si>
+    <t>Abercrombie &amp; Fitch</t>
+  </si>
+  <si>
+    <t>Scotts Miracle-Gro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -416,7 +438,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -557,40 +579,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,26 +622,539 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet 1 - Ohio_2016"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>KROGER</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CARDINAL HEALTH</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>PROCTER &amp; GAMBLE</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MARATHON PETROLEUM</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>HANCOCK</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>NATIONWIDE</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MACY'S</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>PROGRESSIVE</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>AMERICAN ELECTRIC POWER</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>GOODYEAR TIRE &amp; RUBBER</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>SUMMIT</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>FIRSTENERGY</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>SUMMIT</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>PARKER-HANNIFIN</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>L BRANDS</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>SHERWIN-WILLIAMS</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>FIFTH THIRD BANCORP</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>AK STEEL HOLDING</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>BUTLER</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>OWENS-ILLINOIS</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>WOOD</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>AMERICAN FINANCIAL GROUP</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>DANA HOLDING</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>LUCAS</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>TRAVELCENTERS OF AMERICA</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>J.M. SMUCKER</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>WAYNE</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>WESTERN &amp; SOUTHERN FINANCIAL GROUP</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>OWENS CORNING</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>LUCAS</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>BIG LOTS</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>CINCINNATI FINANCIAL</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>BUTLER</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>RPM INTERNATIONAL</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>KEYCORP</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>CINTAS</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>ANDERSONS</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>HEXION</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>WELLTOWER</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>GREIF</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>ABERCROMBIE &amp; FITCH</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>WORTHINGTON INDUSTRIES</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>POLYONE</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>ALERIS</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>VANTIV</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>HUNTINGTON BANCSHARES</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>SCOTTS MIRACLE-GRO</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>COOPER TIRE &amp; RUBBER</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>CONVERGYS</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>TIMKEN</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>DIEBOLD NIXDORF</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>APPLIED INDUSTRIAL TECHNOLOGIES</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>TRANSDIGM GROUP</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>DSW</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>HYSTER-YALE MATERIALS HANDLING</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>LINCOLN ELECTRIC HOLDINGS</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>TERADATA</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>MEDICAL MUTUAL OF OHIO</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>CLIFFS NATURAL RESOURCES</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>METTLER-TOLEDO INTERNATIONAL</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>A. SCHULMAN</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>EXPRESS</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>AMERICAN GREETINGS</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>WENDY'S</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -818,7 +1353,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -837,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,9 +1623,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1107,7 +1648,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1126,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,9 +1914,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1389,7 +1936,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1408,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +2011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +2037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +2063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +2089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +2115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +2141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +2167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +2193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,916 +2206,1173 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A3,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A4,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>CUYAHOGA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="7">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A5,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="7">
+        <v>96</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A6,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="7">
+        <v>124</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A7,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>LUCAS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="7">
+        <v>127</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A8,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="7">
+        <v>164</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A9,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="7">
+        <v>180</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A10,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7">
+        <v>194</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A11,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>SUMMIT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="7">
+        <v>209</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A12,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="7">
+        <v>221</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A13,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="7">
+        <v>290</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A14,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="7">
+        <v>302</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A15,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="7">
+        <v>316</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A16,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="7">
+        <v>322</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A17,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="7">
+        <v>326</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A18,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>WOOD</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7">
+        <v>332</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A19,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="7">
+        <v>334</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A20,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7">
+        <v>382</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A21,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
+        <v>407</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A22,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7">
+        <v>413</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A23,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="7">
+        <v>422</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A24,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>LUCAS</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="7">
+        <v>431</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A25,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="7">
+        <v>441</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A26,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>446</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A27,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>LUCAS</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="7">
+        <v>471</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A28,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="7">
+        <v>498</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A29,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="7">
+        <v>508</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A30,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>BUTLER</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="7">
+        <v>521</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A31,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>LUCAS</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="7">
+        <v>527</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A32,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="7">
+        <v>561</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A33,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="7">
+        <v>570</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A34,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="7">
+        <v>576</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A35,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="7">
+        <v>589</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A36,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="7">
+        <v>594</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A37,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="7">
+        <v>599</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A38,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="7">
+        <v>607</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A39,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7">
+        <v>611</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A40,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="7">
+        <v>617</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A41,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7">
+        <v>665</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A42,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="7">
+        <v>680</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A43,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="7">
+        <v>693</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A44,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="7">
+        <v>707</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A45,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>LUCAS</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="7">
+        <v>721</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A46,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="7">
+        <v>731</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A47,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="7">
+        <v>744</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A48,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="7">
+        <v>773</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A49,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="7">
+        <v>784</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A50,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="7">
+        <v>806</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A51,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="7">
+        <v>821</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A52,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="7">
+        <v>880</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A53,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="7">
+        <v>900</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A54,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="7">
+        <v>904</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A55,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="7">
+        <v>922</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A56,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="7">
+        <v>930</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A57,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="7">
+        <v>960</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A58,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="7">
+        <v>970</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A59,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="B60" s="7">
+        <v>979</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>979</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="D60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A60,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B61" s="7">
+        <v>983</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
-        <v>983</v>
-      </c>
-      <c r="C4" t="s" s="9">
+      <c r="D61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A61,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>WAYNE</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="7">
+        <v>991</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A62,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="7">
+        <v>992</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
-        <v>991</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
-        <v>992</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8">
-        <v>960</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8">
-        <v>970</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
-        <v>930</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8">
-        <v>922</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8">
-        <v>880</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8">
-        <v>900</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8">
-        <v>904</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8">
-        <v>821</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8">
-        <v>806</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8">
-        <v>773</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8">
-        <v>784</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8">
-        <v>731</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8">
-        <v>744</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B20" s="8">
-        <v>707</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8">
-        <v>721</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="B22" s="8">
-        <v>680</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8">
-        <v>693</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8">
-        <v>665</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="B25" s="8">
-        <v>607</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B26" s="8">
-        <v>611</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8">
-        <v>617</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B28" s="8">
-        <v>589</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B29" s="8">
-        <v>594</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8">
-        <v>599</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="B31" s="8">
-        <v>570</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="B32" s="8">
-        <v>576</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="B33" s="8">
-        <v>561</v>
-      </c>
-      <c r="C33" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="B34" s="8">
-        <v>527</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>69</v>
-      </c>
-      <c r="D34" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="B35" s="8">
-        <v>508</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="B36" s="8">
-        <v>521</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="B37" s="8">
-        <v>498</v>
-      </c>
-      <c r="C37" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8">
-        <v>471</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="B39" s="8">
-        <v>441</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>80</v>
-      </c>
-      <c r="B40" s="8">
-        <v>446</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="B41" s="8">
-        <v>422</v>
-      </c>
-      <c r="C41" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="B42" s="8">
-        <v>431</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>85</v>
-      </c>
-      <c r="D42" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="B43" s="8">
-        <v>407</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="B44" s="8">
-        <v>413</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="B45" s="8">
-        <v>382</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="B46" s="8">
-        <v>326</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="B47" s="8">
-        <v>332</v>
-      </c>
-      <c r="C47" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="D47" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B48" s="8">
-        <v>334</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="B49" s="8">
-        <v>302</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="B50" s="8">
-        <v>316</v>
-      </c>
-      <c r="C50" t="s" s="9">
-        <v>101</v>
-      </c>
-      <c r="D50" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="B51" s="8">
-        <v>322</v>
-      </c>
-      <c r="C51" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="D51" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B52" s="8">
-        <v>290</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B53" s="8">
-        <v>209</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>107</v>
-      </c>
-      <c r="D53" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="B54" s="8">
-        <v>221</v>
-      </c>
-      <c r="C54" t="s" s="9">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="B55" s="8">
-        <v>194</v>
-      </c>
-      <c r="C55" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="D55" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="B56" s="8">
-        <v>180</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="B57" s="8">
-        <v>164</v>
-      </c>
-      <c r="C57" t="s" s="9">
-        <v>115</v>
-      </c>
-      <c r="D57" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="B58" s="8">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="D58" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="B59" s="8">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s" s="9">
-        <v>119</v>
-      </c>
-      <c r="D59" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="7">
-        <v>120</v>
-      </c>
-      <c r="B60" s="8">
-        <v>96</v>
-      </c>
-      <c r="C60" t="s" s="9">
-        <v>121</v>
-      </c>
-      <c r="D60" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="B61" s="8">
-        <v>18</v>
-      </c>
-      <c r="C61" t="s" s="9">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="B62" s="8">
-        <v>20</v>
-      </c>
-      <c r="C62" t="s" s="9">
-        <v>125</v>
-      </c>
-      <c r="D62" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="B63" s="8">
-        <v>22</v>
-      </c>
-      <c r="C63" t="s" s="9">
-        <v>127</v>
-      </c>
-      <c r="D63" t="s" s="9">
-        <v>7</v>
+      <c r="D63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>_xlfn.XLOOKUP(A63,'[1]Sheet 1 - Ohio_2016'!$A$3:$A$57,'[1]Sheet 1 - Ohio_2016'!$E$3:$E$57,-1,1)</f>
+        <v>LUCAS</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D63" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D63">
+      <sortCondition ref="B2:B63"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
